--- a/Excel/奖池道具表.xlsx
+++ b/Excel/奖池道具表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshuo/Cartoon_reign/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E9677B-B236-7A43-ADB5-09D06F4D4116}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F21D8EC-1FD5-A648-B9F1-B83AC4DB5530}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,29 +22,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>地图ID</t>
+    <t>类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,3,3,3</t>
+    <t>品质</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,1</t>
+    <t>所属奖池</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>怪物ID配置</t>
+    <t>对应ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,2,2,3,3</t>
+    <t>equip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -52,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,12 +99,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,7 +122,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -128,9 +137,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,17 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="38.83203125" customWidth="1"/>
@@ -465,66 +472,350 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="16">
+    <row r="2" spans="1:6" s="3" customFormat="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="16">
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="16">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="D11" s="1"/>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Excel/奖池道具表.xlsx
+++ b/Excel/奖池道具表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshuo/Cartoon_reign/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F21D8EC-1FD5-A648-B9F1-B83AC4DB5530}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0E14DF-5FB4-6049-99E2-8F1BDBB4622C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -445,24 +449,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="12.6640625"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="38.83203125" customWidth="1"/>
+    <col min="4" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:7" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -476,11 +480,14 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -493,11 +500,14 @@
       <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1">
+    <row r="3" spans="1:7" s="3" customFormat="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -510,11 +520,14 @@
       <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1">
+    <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -527,11 +540,14 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1">
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -544,11 +560,14 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1">
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -561,11 +580,14 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1">
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -578,11 +600,14 @@
       <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1">
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -595,11 +620,14 @@
       <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1">
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -612,11 +640,14 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1">
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -629,11 +660,14 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -646,11 +680,14 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -663,11 +700,14 @@
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -680,11 +720,14 @@
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -697,11 +740,14 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -714,11 +760,14 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -731,11 +780,14 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -748,11 +800,14 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -765,11 +820,14 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -782,11 +840,14 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -799,23 +860,28 @@
       <c r="D20" s="1">
         <v>3</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="1"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
